--- a/data/trans_dic/POLIPATOLOGIA_2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_2-Provincia-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.4159618325929351</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3287869481155549</v>
+        <v>0.328786948115555</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.2200938896564643</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.139687818977845</v>
+        <v>0.1419144882434569</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1853474493248623</v>
+        <v>0.186213564692099</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1980862855339187</v>
+        <v>0.198969618180507</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2260110049781997</v>
+        <v>0.2322279316989836</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2065523158276949</v>
+        <v>0.2073788213065223</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3529624909677987</v>
+        <v>0.3478318879450861</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3542426489793263</v>
+        <v>0.3620138259420813</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2902449825697222</v>
+        <v>0.2884836090904478</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1878183758278904</v>
+        <v>0.1877535905155708</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2836895322995604</v>
+        <v>0.2793827551409314</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2940171435942084</v>
+        <v>0.2890134158730105</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2725264146896192</v>
+        <v>0.2709388932897768</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2316342289757252</v>
+        <v>0.2268925458922307</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2785951753753679</v>
+        <v>0.282562933099439</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2991859711231581</v>
+        <v>0.3020508347563337</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3207648984529114</v>
+        <v>0.3302728916046968</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.321635921612432</v>
+        <v>0.3149589862549136</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.473329343575828</v>
+        <v>0.4764918290891579</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4747292143760993</v>
+        <v>0.4740203532475532</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3717835067907923</v>
+        <v>0.37131258188935</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2578774876527712</v>
+        <v>0.257247713305094</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3625216528089383</v>
+        <v>0.3635926163031323</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.376860173031178</v>
+        <v>0.3712665787264214</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3334690883856439</v>
+        <v>0.3347151205608037</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.2178690418880978</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2603533084452597</v>
+        <v>0.2603533084452598</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.4043330875561732</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1457019852752542</v>
+        <v>0.1477093203189911</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.172239840825211</v>
+        <v>0.1720857181915991</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1828145886052847</v>
+        <v>0.1842438632033138</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2187163202162479</v>
+        <v>0.2183637585364372</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3646089842979373</v>
+        <v>0.3639125975384822</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3081487639763583</v>
+        <v>0.3075841380069378</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3152694639339859</v>
+        <v>0.3122662809709099</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3565852876868082</v>
+        <v>0.3599149110748766</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2665137515446069</v>
+        <v>0.2653648764024995</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2488758515459576</v>
+        <v>0.251373245442811</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.257671519545319</v>
+        <v>0.2593310650158087</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3012090019988952</v>
+        <v>0.2998315705953105</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2220919586866276</v>
+        <v>0.2162967450847163</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.252904955063898</v>
+        <v>0.2532183768306465</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2583811055710426</v>
+        <v>0.2573113648864701</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3055231929836841</v>
+        <v>0.3086036421906069</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4480701902337754</v>
+        <v>0.4480842497826557</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3947886108734184</v>
+        <v>0.3930454853781515</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.398225263066993</v>
+        <v>0.395057712719651</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4364725689312943</v>
+        <v>0.4321081722661702</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3233646562370043</v>
+        <v>0.3214332569968987</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.306458736366065</v>
+        <v>0.3119407031963469</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3163000508038932</v>
+        <v>0.3167119701343277</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3606168022536084</v>
+        <v>0.3582892722734136</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1290114072626683</v>
+        <v>0.1292801085868361</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2352064988414732</v>
+        <v>0.2319722103558878</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1492185268759481</v>
+        <v>0.1530321447335091</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3133453500303989</v>
+        <v>0.3106538583662034</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2587504760821776</v>
+        <v>0.2597018748460707</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3116665003072353</v>
+        <v>0.3141864300359595</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2719478526812554</v>
+        <v>0.2703096210359245</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4277363236555624</v>
+        <v>0.4309623297843297</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2053092141367321</v>
+        <v>0.2077349255761007</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2885745350879236</v>
+        <v>0.2872489638665739</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2249313929390132</v>
+        <v>0.2226728467401577</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3909374143132133</v>
+        <v>0.3866613903934416</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.210382008316896</v>
+        <v>0.2120214809843182</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.337468122166676</v>
+        <v>0.3321689427752461</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2362552219131541</v>
+        <v>0.2343264288443312</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4090494038331263</v>
+        <v>0.410209311576231</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3578202561492299</v>
+        <v>0.3565588825490617</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4167987804600734</v>
+        <v>0.4199656668199455</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.375754796520911</v>
+        <v>0.3691971681497515</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5134946108807916</v>
+        <v>0.5215758042762937</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2708870796088586</v>
+        <v>0.2721395787518119</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3594523565277094</v>
+        <v>0.3600877476211679</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2940918657872648</v>
+        <v>0.2894311824767893</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4514463746843386</v>
+        <v>0.4501461302767015</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.4298104967571767</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.4723842418903515</v>
+        <v>0.4723842418903516</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2581769033961647</v>
@@ -1105,7 +1105,7 @@
         <v>0.3605761212779953</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.4062340981680715</v>
+        <v>0.4062340981680714</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1645310157227201</v>
+        <v>0.166222193935534</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1899076443965328</v>
+        <v>0.1936913510265771</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2448188749184224</v>
+        <v>0.2402867029092144</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2767336653748673</v>
+        <v>0.2751773199421705</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2599073992610694</v>
+        <v>0.2608476777805172</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3954574520362003</v>
+        <v>0.3869704135856979</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3764669092985049</v>
+        <v>0.3820658806844289</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4297019418186083</v>
+        <v>0.4306606100834823</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2275522533382117</v>
+        <v>0.2281859463577844</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3042037673876438</v>
+        <v>0.3066320021176782</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3252856382803226</v>
+        <v>0.3251679735823229</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3693717669461815</v>
+        <v>0.3653475014287497</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2526973526168093</v>
+        <v>0.248438967956483</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2837057494579454</v>
+        <v>0.283522452719672</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.341125339482579</v>
+        <v>0.3355064430149632</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.392278144988346</v>
+        <v>0.3910628986860127</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3541337477247444</v>
+        <v>0.3542707347712224</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4960358610469878</v>
+        <v>0.4917946964102161</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4795242119197972</v>
+        <v>0.4885919381249545</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5163641299682801</v>
+        <v>0.5210307053445763</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2895440737899813</v>
+        <v>0.291611003359385</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3772346005421905</v>
+        <v>0.3775124366663677</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3975074793595574</v>
+        <v>0.396635154243463</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4433370980068235</v>
+        <v>0.4451407638433236</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.2297686661576292</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3118010227352423</v>
+        <v>0.3118010227352422</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.3051067982462148</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.08397567594487111</v>
+        <v>0.08909673671495009</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2151793532194108</v>
+        <v>0.2209324222634621</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1780994498944617</v>
+        <v>0.1788281500677561</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2609683525977308</v>
+        <v>0.2618613657463152</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2432061949536715</v>
+        <v>0.2393257201762462</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5265931782038555</v>
+        <v>0.5205761183715925</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3395641608465765</v>
+        <v>0.3370910144047198</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4719342568726149</v>
+        <v>0.4699655948742504</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1784636543522724</v>
+        <v>0.1820497058168218</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3912975130174637</v>
+        <v>0.3926771854269865</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2739965057676636</v>
+        <v>0.2777428482538288</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3854662278995169</v>
+        <v>0.3838566416682558</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1739143124501028</v>
+        <v>0.1785838911831533</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3468364162761272</v>
+        <v>0.3501415508178485</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2961486714743016</v>
+        <v>0.2953374719802038</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3665500786235263</v>
+        <v>0.3708367455159258</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3795922830969222</v>
+        <v>0.3688812319780776</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6561386098991808</v>
+        <v>0.6499738193663358</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4723282830987445</v>
+        <v>0.4658612976416381</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5685390513776033</v>
+        <v>0.5706373452476206</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2613260510663661</v>
+        <v>0.2616693648370251</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4875855585253962</v>
+        <v>0.4907101757375204</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3622971439461557</v>
+        <v>0.3669196676468875</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4595388213524799</v>
+        <v>0.458254759893565</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.2394038541718011</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.425716283307011</v>
+        <v>0.4257162833070109</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.3564269734395713</v>
@@ -1365,7 +1365,7 @@
         <v>0.3462032811416638</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.4925494762490745</v>
+        <v>0.4925494762490743</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.2712256346683974</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1420683845554394</v>
+        <v>0.1388620621708347</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2680950129344964</v>
+        <v>0.2725553481349389</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1866071141011166</v>
+        <v>0.1908053074293849</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3716037262333722</v>
+        <v>0.3693440126129383</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3067134030654753</v>
+        <v>0.2980287992921784</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.4035957980624815</v>
+        <v>0.4005564516033233</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2924901556270998</v>
+        <v>0.292597407761488</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.4413161120561188</v>
+        <v>0.4456254917751315</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.23678162997604</v>
+        <v>0.2359380371990654</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.3542224035801715</v>
+        <v>0.3517705225571892</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2559600526263801</v>
+        <v>0.2544486368820294</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.4236447796554951</v>
+        <v>0.4214350597822155</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2314094940145948</v>
+        <v>0.2363378530677592</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3855465034194832</v>
+        <v>0.391679491492784</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3006554393932613</v>
+        <v>0.2939949549753921</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4781299165622572</v>
+        <v>0.4766205613812812</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4180135144415119</v>
+        <v>0.4119764813451265</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5184119469895728</v>
+        <v>0.5157904431260746</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.4065218400720862</v>
+        <v>0.4086151252552864</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.5359255922205139</v>
+        <v>0.5390537527488297</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3105523027867118</v>
+        <v>0.3087575281295253</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.4418914638613585</v>
+        <v>0.4364858906284032</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3332674014891596</v>
+        <v>0.3331418645873901</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4942973816898978</v>
+        <v>0.4964388346835102</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.3254709985397868</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.6204056454359628</v>
+        <v>0.6204056454359629</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.2466043018335913</v>
@@ -1513,7 +1513,7 @@
         <v>0.2722471015140784</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.5151952710020654</v>
+        <v>0.5151952710020655</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1631558499119119</v>
+        <v>0.1652725519615281</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2347992769960748</v>
+        <v>0.2325288346488587</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1853323022751412</v>
+        <v>0.1868678327652409</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3612963838502114</v>
+        <v>0.3616570143087367</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.263981189694049</v>
+        <v>0.2657607142890317</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3602839549067262</v>
+        <v>0.3544301635461398</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2908627494707621</v>
+        <v>0.2890556217527533</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.5875461208524657</v>
+        <v>0.5867305484231921</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.224350049991339</v>
+        <v>0.2227928079653306</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.3073596141316776</v>
+        <v>0.3100726878457403</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2482174769707541</v>
+        <v>0.2469695907737626</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.4867494020236818</v>
+        <v>0.4860420478826032</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2274070632149295</v>
+        <v>0.2294734765096058</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3080810921064586</v>
+        <v>0.3053182994766598</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2518699799938018</v>
+        <v>0.2520346690080031</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4426408120819936</v>
+        <v>0.4449135825128276</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.333339490116264</v>
+        <v>0.3369924533353057</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4341342419073431</v>
+        <v>0.435426153894689</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3653254494353362</v>
+        <v>0.3622652630554929</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.652256456231211</v>
+        <v>0.6528192103234974</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2718281061873681</v>
+        <v>0.2725290230752282</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3574928311429286</v>
+        <v>0.3619177824701217</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2993266123300444</v>
+        <v>0.2996433025131358</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.5424374508236586</v>
+        <v>0.5414345423614939</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.220349541047945</v>
+        <v>0.2209583122603676</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1672521462587532</v>
+        <v>0.168139266437971</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2330670142069965</v>
+        <v>0.2345220284833368</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.2338774069080566</v>
+        <v>0.2327007514582116</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.3350449017645172</v>
+        <v>0.3382291139446174</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2670785006709165</v>
+        <v>0.2677137993586387</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.3165180666375086</v>
+        <v>0.3204371205384186</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.3399179124093319</v>
+        <v>0.3419572971904806</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2914450327189225</v>
+        <v>0.2899212207212426</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.2261739468756837</v>
+        <v>0.2286695163805424</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.2898338415396355</v>
+        <v>0.2888041739194748</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2972298431886307</v>
+        <v>0.2950694862359342</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2870077939382403</v>
+        <v>0.2858624484670181</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2264441950365772</v>
+        <v>0.2289837495663025</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2974157395363237</v>
+        <v>0.2986443200687163</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2930173579607411</v>
+        <v>0.2957295779146342</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.4064827452668393</v>
+        <v>0.4042661122586748</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3339241418216053</v>
+        <v>0.3324190654382775</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3893752014388482</v>
+        <v>0.3951701374483705</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.4012659240351959</v>
+        <v>0.4001791579017345</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3371629265675128</v>
+        <v>0.3378413588776034</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2741637744902311</v>
+        <v>0.2742701153136993</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3365917785747887</v>
+        <v>0.3356574197199937</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.3398173149893895</v>
+        <v>0.3386132808521101</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1836902442071196</v>
+        <v>0.183963270024117</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2285916501713468</v>
+        <v>0.2277489814157754</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.224005101273313</v>
+        <v>0.2251017382393446</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.3074551715711908</v>
+        <v>0.3057504173086999</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.3187980497467797</v>
+        <v>0.3188083237191427</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.3691360209666502</v>
+        <v>0.3705269174170019</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.3443184172949922</v>
+        <v>0.3421775869072018</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.4467535595557532</v>
+        <v>0.4474530844938493</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.2560107588528546</v>
+        <v>0.2575965742536874</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.3043682720939518</v>
+        <v>0.3044697620063027</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.2884601761554669</v>
+        <v>0.2902112413715754</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.3818879201369373</v>
+        <v>0.3817487654082554</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2110368303081016</v>
+        <v>0.211719058118747</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2593592738880337</v>
+        <v>0.2592995930426619</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2540258005607766</v>
+        <v>0.2533845174307455</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.3398893028249449</v>
+        <v>0.3387709262693741</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.3507406700124574</v>
+        <v>0.3509144351144274</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.4030172168320776</v>
+        <v>0.4035991487437324</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.3778455722336492</v>
+        <v>0.3768463126128068</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.4752806776127179</v>
+        <v>0.4756974563710953</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2784414872857595</v>
+        <v>0.2784729992324192</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.3276272681179413</v>
+        <v>0.3272453369934935</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.3122488336970831</v>
+        <v>0.31180790888157</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.4047081461397947</v>
+        <v>0.4041744898064048</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>38136</v>
+        <v>38744</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>54629</v>
+        <v>54884</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>58190</v>
+        <v>58450</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>72062</v>
+        <v>74045</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>53877</v>
+        <v>54092</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>101387</v>
+        <v>99913</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>102271</v>
+        <v>104514</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>91735</v>
+        <v>91178</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>100266</v>
+        <v>100232</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>165102</v>
+        <v>162596</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>171254</v>
+        <v>168340</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>173029</v>
+        <v>172021</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>63238</v>
+        <v>61944</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>82113</v>
+        <v>83282</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>87889</v>
+        <v>88731</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>102274</v>
+        <v>105306</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>83895</v>
+        <v>82153</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>135961</v>
+        <v>136870</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>137056</v>
+        <v>136851</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>117506</v>
+        <v>117357</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>137667</v>
+        <v>137331</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>210981</v>
+        <v>211605</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>219507</v>
+        <v>216249</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>211722</v>
+        <v>212513</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>71842</v>
+        <v>72832</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>87072</v>
+        <v>86994</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>91878</v>
+        <v>92596</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>116061</v>
+        <v>115874</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>183744</v>
+        <v>183393</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>161398</v>
+        <v>161102</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>164912</v>
+        <v>163341</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>194872</v>
+        <v>196691</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>265721</v>
+        <v>264575</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>256166</v>
+        <v>258736</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>264283</v>
+        <v>265985</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>324445</v>
+        <v>322961</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>109508</v>
+        <v>106651</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>127850</v>
+        <v>128009</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>129856</v>
+        <v>129318</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>162125</v>
+        <v>163760</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>225805</v>
+        <v>225812</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>206776</v>
+        <v>205863</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>208305</v>
+        <v>206648</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>238530</v>
+        <v>236145</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>322402</v>
+        <v>320477</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>315436</v>
+        <v>321078</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>324416</v>
+        <v>324838</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>388435</v>
+        <v>385928</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>41135</v>
+        <v>41220</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>76218</v>
+        <v>75170</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>47536</v>
+        <v>48751</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>99015</v>
+        <v>98164</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>86788</v>
+        <v>87107</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>106285</v>
+        <v>107144</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>91459</v>
+        <v>90908</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>152437</v>
+        <v>153587</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>134325</v>
+        <v>135912</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>191921</v>
+        <v>191040</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>147302</v>
+        <v>145823</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>262857</v>
+        <v>259981</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>67079</v>
+        <v>67602</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>109355</v>
+        <v>107638</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>75263</v>
+        <v>74648</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>129257</v>
+        <v>129623</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>120017</v>
+        <v>119594</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>142137</v>
+        <v>143217</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>126370</v>
+        <v>124164</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>183000</v>
+        <v>185880</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>177230</v>
+        <v>178049</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>239060</v>
+        <v>239482</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>192593</v>
+        <v>189541</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>303541</v>
+        <v>302667</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>59013</v>
+        <v>59619</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>71022</v>
+        <v>72437</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>90574</v>
+        <v>88897</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>103262</v>
+        <v>102681</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>96544</v>
+        <v>96893</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>153814</v>
+        <v>150513</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>145799</v>
+        <v>147968</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>181317</v>
+        <v>181722</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>166142</v>
+        <v>166605</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>232087</v>
+        <v>233940</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>246322</v>
+        <v>246232</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>293690</v>
+        <v>290490</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>90635</v>
+        <v>89108</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>106101</v>
+        <v>106032</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>126204</v>
+        <v>124125</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>146377</v>
+        <v>145923</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>131545</v>
+        <v>131596</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>192934</v>
+        <v>191284</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>185712</v>
+        <v>189223</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>217886</v>
+        <v>219855</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>211404</v>
+        <v>212913</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>287805</v>
+        <v>288017</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>301011</v>
+        <v>300351</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>352500</v>
+        <v>353935</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>17073</v>
+        <v>18114</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>45751</v>
+        <v>46974</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>37618</v>
+        <v>37772</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>53672</v>
+        <v>53856</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>50506</v>
+        <v>49700</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>115635</v>
+        <v>114314</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>74224</v>
+        <v>73684</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>108034</v>
+        <v>107584</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>73344</v>
+        <v>74818</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>169122</v>
+        <v>169719</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>117766</v>
+        <v>119376</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>167517</v>
+        <v>166817</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>35358</v>
+        <v>36308</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>73744</v>
+        <v>74446</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>62553</v>
+        <v>62381</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>75387</v>
+        <v>76268</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>78829</v>
+        <v>76605</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>144082</v>
+        <v>142728</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>103245</v>
+        <v>101831</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>130149</v>
+        <v>130629</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>107399</v>
+        <v>107540</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>210739</v>
+        <v>212089</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>155718</v>
+        <v>157705</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>199707</v>
+        <v>199149</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>38474</v>
+        <v>37605</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>73453</v>
+        <v>74675</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>49101</v>
+        <v>50205</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>100596</v>
+        <v>99984</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>85310</v>
+        <v>82895</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>113019</v>
+        <v>112168</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>79883</v>
+        <v>79913</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>116397</v>
+        <v>117534</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>129982</v>
+        <v>129519</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>196243</v>
+        <v>194885</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>137256</v>
+        <v>136445</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>226420</v>
+        <v>225239</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>62668</v>
+        <v>64003</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>105632</v>
+        <v>107313</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>79109</v>
+        <v>77357</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>129433</v>
+        <v>129025</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>116268</v>
+        <v>114589</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>145171</v>
+        <v>144437</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>111027</v>
+        <v>111599</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>141350</v>
+        <v>142175</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>170479</v>
+        <v>169494</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>244813</v>
+        <v>241818</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>178711</v>
+        <v>178643</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>264181</v>
+        <v>265325</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>100345</v>
+        <v>101647</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>155622</v>
+        <v>154117</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>121681</v>
+        <v>122690</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>260020</v>
+        <v>260280</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>168478</v>
+        <v>169614</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>249984</v>
+        <v>245922</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>201072</v>
+        <v>199822</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>453619</v>
+        <v>452989</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>281166</v>
+        <v>279214</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>416977</v>
+        <v>420657</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>334560</v>
+        <v>332878</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>726105</v>
+        <v>725050</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>139861</v>
+        <v>141132</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>204192</v>
+        <v>202361</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>165367</v>
+        <v>165475</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>318563</v>
+        <v>320199</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>212744</v>
+        <v>215075</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>301225</v>
+        <v>302122</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>252547</v>
+        <v>250432</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>503579</v>
+        <v>504014</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>340667</v>
+        <v>341546</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>484989</v>
+        <v>490993</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>403448</v>
+        <v>403875</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>809178</v>
+        <v>807682</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>163895</v>
+        <v>164348</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>130306</v>
+        <v>130997</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>181462</v>
+        <v>182595</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>186651</v>
+        <v>185712</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>262511</v>
+        <v>265006</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>220033</v>
+        <v>220557</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>261497</v>
+        <v>264735</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>282584</v>
+        <v>284280</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>445126</v>
+        <v>442798</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>362546</v>
+        <v>366546</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>465111</v>
+        <v>463458</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>484307</v>
+        <v>480787</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>213475</v>
+        <v>212623</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>176422</v>
+        <v>178401</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>231563</v>
+        <v>232519</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>233849</v>
+        <v>236013</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>318484</v>
+        <v>316747</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>275104</v>
+        <v>273864</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>321689</v>
+        <v>326477</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>333585</v>
+        <v>332681</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>514951</v>
+        <v>515987</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>439471</v>
+        <v>439642</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>540146</v>
+        <v>538646</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>553699</v>
+        <v>551737</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>601869</v>
+        <v>602764</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>783333</v>
+        <v>780445</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>760352</v>
+        <v>764074</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>1086166</v>
+        <v>1080143</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>1077281</v>
+        <v>1077316</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1313500</v>
+        <v>1318449</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>1220451</v>
+        <v>1212863</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>1669498</v>
+        <v>1672112</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1703941</v>
+        <v>1714496</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>2126039</v>
+        <v>2126748</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>2001594</v>
+        <v>2013744</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>2776217</v>
+        <v>2775205</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>691471</v>
+        <v>693707</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>888767</v>
+        <v>888562</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>862252</v>
+        <v>860076</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1200748</v>
+        <v>1196797</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1185222</v>
+        <v>1185809</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1434060</v>
+        <v>1436130</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1339290</v>
+        <v>1335748</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1776102</v>
+        <v>1777660</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1853234</v>
+        <v>1853444</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>2288505</v>
+        <v>2285837</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>2166661</v>
+        <v>2163601</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>2942113</v>
+        <v>2938234</v>
       </c>
     </row>
     <row r="40">
